--- a/columns.xlsx
+++ b/columns.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/aiyer98_gatech_edu/Documents/Summer 2022/CS 4641/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E51ED91-ACE6-514C-AFAC-422D537DC1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{8E51ED91-ACE6-514C-AFAC-422D537DC1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C87643D-7705-4A45-B08A-319A3D6F6DC2}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14500" xr2:uid="{4323C839-76DF-624B-BB99-27217A1100F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
-  <si>
-    <t xml:space="preserve">Subject </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
   <si>
     <t>brux1</t>
   </si>
@@ -46,36 +43,6 @@
     <t>'Fp2-F4','F4-C4','C4-P4','P4-O2','F8-T4','T4-T6','FP1-F3','F3-C3','C3-P3','P3-O1','F7-T3','T3-T5','C4-A1','ROC-LOC','EMG1-EMG2','ECG1-ECG2','DX1-DX2','SX1-SX2'</t>
   </si>
   <si>
-    <t>'Fp2-F4'</t>
-  </si>
-  <si>
-    <t>'F4-C4'</t>
-  </si>
-  <si>
-    <t>'C4-P4'</t>
-  </si>
-  <si>
-    <t>'P4-O2'</t>
-  </si>
-  <si>
-    <t>'C4-A1'</t>
-  </si>
-  <si>
-    <t>'ROC-LOC'</t>
-  </si>
-  <si>
-    <t>'EMG1-EMG2'</t>
-  </si>
-  <si>
-    <t>'ECG1-ECG2'</t>
-  </si>
-  <si>
-    <t>'DX1-DX2'</t>
-  </si>
-  <si>
-    <t>'SX1-SX2'</t>
-  </si>
-  <si>
     <t>brux2</t>
   </si>
   <si>
@@ -560,60 +527,6 @@
   </si>
   <si>
     <t>'ROC-LOC','Fp2-F4','F4-C4','C4-P4','P4-O2','C4-A1','EMG1-EMG2','ECG1-ECG2','MIC','Flusso','TORACE','ADDDOME','SAO2','SX1-SX2','DX1-DX2','Position','HR','PLETH'</t>
-  </si>
-  <si>
-    <t>n1-n16</t>
-  </si>
-  <si>
-    <t>No pathology (controls)</t>
-  </si>
-  <si>
-    <t>brux1-brux2</t>
-  </si>
-  <si>
-    <t>Bruxism</t>
-  </si>
-  <si>
-    <t>ins1-ins9</t>
-  </si>
-  <si>
-    <t>Insomnia</t>
-  </si>
-  <si>
-    <t>narco1-narco5</t>
-  </si>
-  <si>
-    <t>Narcolepsy</t>
-  </si>
-  <si>
-    <t>nfle1-nfle40</t>
-  </si>
-  <si>
-    <t>Nocturnal frontal lobe epilepsy</t>
-  </si>
-  <si>
-    <t>plm1-plm10</t>
-  </si>
-  <si>
-    <t>Periodic leg movements</t>
-  </si>
-  <si>
-    <t>rbd1-rbd22</t>
-  </si>
-  <si>
-    <t>REM behavior disorder</t>
-  </si>
-  <si>
-    <t>sdb1-sdb4</t>
-  </si>
-  <si>
-    <t>Sleep-disordered breathing</t>
-  </si>
-  <si>
-    <t># To Study</t>
-  </si>
-  <si>
-    <t>Common Signals</t>
   </si>
 </sst>
 </file>
@@ -989,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE2A414-CAB7-6147-86B3-6F964DA1F28B}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D123" sqref="D114:D123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,582 +914,585 @@
     <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>143</v>
@@ -1584,425 +1500,315 @@
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>109</v>
+      <c r="A99" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D113" t="s">
-        <v>192</v>
-      </c>
-      <c r="F113" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D114" t="s">
-        <v>3</v>
-      </c>
-      <c r="F114">
-        <v>2</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D115" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115">
-        <v>2</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117">
-        <v>2</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="118" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118">
-        <v>2</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="121" spans="4:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122">
-        <f>SUM(F114:F121)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D123" t="s">
-        <v>11</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G113" s="4"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G114" s="4"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G115" s="4"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G116" s="4"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G117" s="4"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G118" s="4"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G119" s="4"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="7:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="G120" s="4"/>
+      <c r="H120" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
